--- a/2 Семестр/2.2.6/2.2.6.xlsx
+++ b/2 Семестр/2.2.6/2.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polub\Desktop\ЛАБЫ\2 Семестр\2.2.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA372B2-35CE-4E6B-AC42-018885CEBB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A0A31C-2649-4D89-8D2C-D6E3E2DCA59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -648,27 +648,27 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>B6*B4/2*$D$3/B7/1000</f>
-        <v>5.3813070991325368E-5</v>
+        <f>B6*B4/2*$D$3/B7/100</f>
+        <v>5.3813070991325367E-4</v>
       </c>
       <c r="C8">
-        <f>C6*C4/2*$D$3/C7/1000</f>
-        <v>1.3141423160953125E-4</v>
+        <f>C6*C4/2*$D$3/C7/100</f>
+        <v>1.3141423160953126E-3</v>
       </c>
       <c r="D8">
-        <f>D6*D4/2*$D$3/D7/1000</f>
-        <v>4.1432587268773301E-4</v>
+        <f>D6*D4/2*$D$3/D7/100</f>
+        <v>4.1432587268773304E-3</v>
       </c>
       <c r="E8">
-        <f>E6*E4/2*$D$3/E7/1000</f>
-        <v>4.4829071846411026E-4</v>
+        <f>E6*E4/2*$D$3/E7/100</f>
+        <v>4.4829071846411031E-3</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8">
-        <f>SQRT(SUM((B7-H7)^2)/(4*3))</f>
-        <v>0.59729985785411288</v>
+        <f>SQRT(SUM((B7-H7)^2,(C7-H7)^2,(D7-H7)^2,(E7-H7)^2)/(4*3))</f>
+        <v>0.80424188952860654</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -697,20 +697,20 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <f>2*B4^2/4*$G$1/(9*B7)</f>
-        <v>1.7492949500344173E-2</v>
+        <f>2*B4^2/4*$G$1/(9*B7)/100</f>
+        <v>1.7492949500344174E-4</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:E9" si="1">2*C4^2/4*$G$1/(9*C7)</f>
-        <v>3.001876519194864E-2</v>
+        <f>2*C4^2/4*$G$1/(9*C7)/100</f>
+        <v>3.0018765191948643E-4</v>
       </c>
       <c r="D9">
-        <f>2*D4^2/4*$G$2/(9*D7)</f>
-        <v>6.7738991883867464E-2</v>
+        <f>2*D4^2/4*$G$2/(9*D7)/100</f>
+        <v>6.7738991883867466E-4</v>
       </c>
       <c r="E9">
-        <f>2*E4^2/4*$G$2/(9*E7)</f>
-        <v>6.8063892814425209E-2</v>
+        <f>2*E4^2/4*$G$2/(9*E7)/100</f>
+        <v>6.8063892814425211E-4</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -726,26 +726,26 @@
       </c>
       <c r="B10">
         <f>B6*B9</f>
-        <v>2.516971151128658E-2</v>
+        <v>2.516971151128658E-4</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:E10" si="2">C6*C9</f>
-        <v>7.4120407881354669E-2</v>
+        <f t="shared" ref="C10:E10" si="1">C6*C9</f>
+        <v>7.412040788135467E-4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>0.18816386634407628</v>
+        <f t="shared" si="1"/>
+        <v>1.881638663440763E-3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0.19172927553359215</v>
+        <f t="shared" si="1"/>
+        <v>1.9172927553359215E-3</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
         <f>SQRT(H8*H8+H9*H9)</f>
-        <v>0.62637925840077235</v>
+        <v>0.8260683216506377</v>
       </c>
       <c r="L10">
         <f>1/295</f>
@@ -773,7 +773,7 @@
       </c>
       <c r="T10">
         <f>H10/H7</f>
-        <v>6.6739664023861917E-2</v>
+        <v>8.801620026256457E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -786,15 +786,15 @@
         <v>1.5316138227187366</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O14" si="3">L11*L11</f>
+        <f t="shared" ref="O11:O14" si="2">L11*L11</f>
         <v>1.0820637119113572E-5</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:P14" si="4">M11*M11</f>
+        <f t="shared" ref="P11:P14" si="3">M11*M11</f>
         <v>2.3458409019431015</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q14" si="5">L11*M11</f>
+        <f t="shared" ref="Q11:Q14" si="4">L11*M11</f>
         <v>5.0382033642063697E-3</v>
       </c>
       <c r="S11">
@@ -803,7 +803,7 @@
       </c>
       <c r="T11">
         <f>H21/H18</f>
-        <v>9.8253731501081298E-2</v>
+        <v>0.12282289946294818</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -813,19 +813,19 @@
       </c>
       <c r="M12">
         <f>LN(H29)</f>
-        <v>0.87501453005071184</v>
+        <v>0.8095592570457365</v>
       </c>
       <c r="O12">
+        <f t="shared" si="2"/>
+        <v>1.018777184158952E-5</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="3"/>
-        <v>1.018777184158952E-5</v>
-      </c>
-      <c r="P12">
+        <v>0.65538619066844483</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="4"/>
-        <v>0.76565042779986814</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
-        <v>2.792896680659789E-3</v>
+        <v>2.5839746474488876E-3</v>
       </c>
       <c r="S12">
         <f>$M$1/313.3*L12</f>
@@ -833,7 +833,7 @@
       </c>
       <c r="T12">
         <f>H32/H29</f>
-        <v>4.3678347863725271E-2</v>
+        <v>0.12910570465841417</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -843,19 +843,19 @@
       </c>
       <c r="M13">
         <f>LN(H40)</f>
-        <v>0.24231922216132082</v>
+        <v>0.16746356935929524</v>
       </c>
       <c r="O13">
+        <f t="shared" si="2"/>
+        <v>9.5672823436091351E-6</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="3"/>
-        <v>9.5672823436091351E-6</v>
-      </c>
-      <c r="P13">
+        <v>2.8044047062555488E-2</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="4"/>
-        <v>5.8718605428867553E-2</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>7.4951816319616699E-4</v>
+        <v>5.1798196523134932E-4</v>
       </c>
       <c r="S13">
         <f>$M$1/323.3*L13</f>
@@ -863,7 +863,7 @@
       </c>
       <c r="T13">
         <f>H43/H40</f>
-        <v>3.5479043545363992E-2</v>
+        <v>7.8826640203536746E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -882,15 +882,15 @@
         <v>-0.28779988861508593</v>
       </c>
       <c r="O14">
+        <f t="shared" si="2"/>
+        <v>9.0072043223051539E-6</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="3"/>
-        <v>9.0072043223051539E-6</v>
-      </c>
-      <c r="P14">
+        <v>8.2828775886855874E-2</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="4"/>
-        <v>8.2828775886855874E-2</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
         <v>-8.6374516391082216E-4</v>
       </c>
       <c r="S14">
@@ -899,7 +899,7 @@
       </c>
       <c r="T14">
         <f>H54/H51</f>
-        <v>6.7778383246032164E-2</v>
+        <v>9.0367435607033919E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -960,15 +960,15 @@
         <v>3.7037037037037033</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17" si="6">$B$1/C16*10</f>
+        <f t="shared" ref="C17" si="5">$B$1/C16*10</f>
         <v>5.5555555555555554</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17" si="7">$B$1/D16*10</f>
+        <f t="shared" ref="D17" si="6">$B$1/D16*10</f>
         <v>5.882352941176471</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="8">$B$1/E16*10</f>
+        <f t="shared" ref="E17" si="7">$B$1/E16*10</f>
         <v>5.882352941176471</v>
       </c>
       <c r="L17">
@@ -976,20 +976,20 @@
         <v>3.1930871945072018E-3</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="9">AVERAGE(M10:M14)</f>
-        <v>0.92006085577020635</v>
+        <f t="shared" ref="M17:Q17" si="8">AVERAGE(M10:M14)</f>
+        <v>0.89199867060880622</v>
       </c>
       <c r="O17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.0214769300560476E-5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="9"/>
-        <v>1.6533721913906407</v>
+        <f t="shared" si="8"/>
+        <v>1.625184432291094</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="9"/>
-        <v>3.0614468749559608E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.973355228720817E-3</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1025,41 +1025,41 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <f>B17*B15/2*$D$14/B18/1000</f>
-        <v>3.0192726674453229E-4</v>
+        <f>B17*B15/2*$D$14/B18/100</f>
+        <v>3.0192726674453229E-3</v>
       </c>
       <c r="C19">
-        <f>C17*C15/2*$D$14/C18/1000</f>
-        <v>6.319407908606491E-4</v>
+        <f>C17*C15/2*$D$14/C18/100</f>
+        <v>6.3194079086064912E-3</v>
       </c>
       <c r="D19">
-        <f>D17*D15/2*$D$14/D18/1000</f>
-        <v>1.9255430923563765E-3</v>
+        <f>D17*D15/2*$D$14/D18/100</f>
+        <v>1.9255430923563764E-2</v>
       </c>
       <c r="E19">
-        <f>E17*E15/2*$D$14/E18/1000</f>
-        <v>1.9090252372421514E-3</v>
+        <f>E17*E15/2*$D$14/E18/100</f>
+        <v>1.9090252372421516E-2</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
       </c>
       <c r="H19">
-        <f>SQRT(SUM((B18-H18)^2)/(4*3))</f>
-        <v>0.44376344943997298</v>
+        <f>SQRT(SUM((B18-H18)^2,(C18-H18)^2,(D18-H18)^2,(E18-H18)^2)/(4*3))</f>
+        <v>0.55959336639437585</v>
       </c>
       <c r="L19" t="s">
         <v>29</v>
       </c>
       <c r="M19">
         <f>(Q17-L17*M17)/(O17-L17*L17)</f>
-        <v>6518.4455073546478</v>
+        <v>6598.2493590029007</v>
       </c>
       <c r="P19" t="s">
         <v>28</v>
       </c>
       <c r="Q19">
         <f>M6*M19</f>
-        <v>8.9954548001494139E-20</v>
+        <v>9.1055841154240036E-20</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1067,20 +1067,20 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <f>2*B15^2/4*$G$1/(9*B18)</f>
-        <v>4.5000624470204184E-2</v>
+        <f>2*B15^2/4*$G$1/(9*B18)/100</f>
+        <v>4.5000624470204186E-4</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:E20" si="10">2*C15^2/4*$G$1/(9*C18)</f>
-        <v>6.7500936705306269E-2</v>
+        <f>2*C15^2/4*$G$1/(9*C18)/100</f>
+        <v>6.7500936705306271E-4</v>
       </c>
       <c r="D20">
-        <f>2*D15^2/4*$G$2/(9*D18)</f>
-        <v>0.14189467409172518</v>
+        <f>2*D15^2/4*$G$2/(9*D18)/100</f>
+        <v>1.4189467409172517E-3</v>
       </c>
       <c r="E20">
-        <f>2*E15^2/4*$G$2/(9*E18)</f>
-        <v>0.14211294560680027</v>
+        <f>2*E15^2/4*$G$2/(9*E18)/100</f>
+        <v>1.4211294560680027E-3</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -1094,14 +1094,14 @@
       </c>
       <c r="M20">
         <f>SQRT((P17-M17*M17)/(O17-L17*L17)-M19*M19)/SQRT(5)</f>
-        <v>107.7053082707217</v>
+        <v>203.12807776553086</v>
       </c>
       <c r="P20" t="s">
         <v>31</v>
       </c>
       <c r="Q20">
         <f>Q19*M20/M19</f>
-        <v>1.4863332541359595E-21</v>
+        <v>2.8031674731643264E-21</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1110,26 +1110,26 @@
       </c>
       <c r="B21">
         <f>B17*B20</f>
-        <v>0.16666897951927473</v>
+        <v>1.6666897951927474E-3</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21" si="11">C17*C20</f>
-        <v>0.37500520391836817</v>
+        <f t="shared" ref="C21" si="9">C17*C20</f>
+        <v>3.7500520391836817E-3</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21" si="12">D17*D20</f>
-        <v>0.83467455348073638</v>
+        <f t="shared" ref="D21" si="10">D17*D20</f>
+        <v>8.3467455348073642E-3</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="13">E17*E20</f>
-        <v>0.83595850356941337</v>
+        <f t="shared" ref="E21" si="11">E17*E20</f>
+        <v>8.3595850356941344E-3</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21">
         <f>SQRT(H19*H19+H20*H20)</f>
-        <v>0.45448597379382399</v>
+        <v>0.56813399566391654</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1183,15 +1183,15 @@
         <v>6.4516129032258061</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28" si="14">$B$1/C27*10</f>
+        <f t="shared" ref="C28" si="12">$B$1/C27*10</f>
         <v>9.5238095238095237</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28" si="15">$B$1/D27*10</f>
+        <f t="shared" ref="D28" si="13">$B$1/D27*10</f>
         <v>11.764705882352942</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28" si="16">$B$1/E27*10</f>
+        <f t="shared" ref="E28" si="14">$B$1/E27*10</f>
         <v>12.5</v>
       </c>
     </row>
@@ -1208,19 +1208,19 @@
         <v>2.7713499828000003</v>
       </c>
       <c r="D29">
-        <f>2*9.81*D26^2*($G$2-$D$25)/(9*4*D28)*10</f>
-        <v>2.0870709599999997</v>
+        <f>2*9.81*D26^2*($G$2-$D$25)/(9*4*D28)/(1+2.4*(D26/$J$1))*10</f>
+        <v>1.7806626027044425</v>
       </c>
       <c r="E29">
-        <f>2*9.81*E26^2*($G$2-$D$25)/(9*4*E28)*10</f>
-        <v>2.0268223871999997</v>
+        <f>2*9.81*E26^2*($G$2-$D$25)/(9*4*E28)/(1+2.4*(E26/$J$1))*10</f>
+        <v>1.7252599659771295</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
       <c r="H29">
         <f>AVERAGE(B29:E29)</f>
-        <v>2.3989101499999999</v>
+        <v>2.2469174553703928</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1228,27 +1228,27 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <f>B28*B26/2*$D$25/B29/1000</f>
-        <v>1.043056235882922E-3</v>
+        <f>B28*B26/2*$D$25/B29/100</f>
+        <v>1.0430562358829221E-2</v>
       </c>
       <c r="C30">
-        <f>C28*C26/2*$D$25/C29/1000</f>
-        <v>1.8500868266583389E-3</v>
+        <f>C28*C26/2*$D$25/C29/100</f>
+        <v>1.8500868266583391E-2</v>
       </c>
       <c r="D30">
-        <f>D28*D26/2*$D$25/D29/1000</f>
-        <v>6.7045833345650068E-3</v>
+        <f>D28*D26/2*$D$25/D29/100</f>
+        <v>7.85827767439959E-2</v>
       </c>
       <c r="E30">
-        <f>E28*E26/2*$D$25/E29/1000</f>
-        <v>7.4511955736108427E-3</v>
+        <f>E28*E26/2*$D$25/E29/100</f>
+        <v>8.7536083244397267E-2</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
       </c>
       <c r="H30">
-        <f>SQRT(SUM((B29-H29)^2)/(4*3))</f>
-        <v>8.9918586290550703E-2</v>
+        <f>SQRT(SUM((B29-H29)^2,(C29-H29)^2,(D29-H29)^2,(E29-H29)^2)/(4*3))</f>
+        <v>0.28568093190800742</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1256,27 +1256,27 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <f>2*B26^2/4*$G$1/(9*B29)</f>
-        <v>7.8340299292484636E-2</v>
+        <f>2*B26^2/4*$G$1/(9*B29)/100</f>
+        <v>7.8340299292484639E-4</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:E31" si="17">2*C26^2/4*$G$1/(9*C29)</f>
-        <v>0.11564520371747732</v>
+        <f>2*C26^2/4*$G$1/(9*C29)/100</f>
+        <v>1.1564520371747731E-3</v>
       </c>
       <c r="D31">
-        <f>2*D26^2/4*$G$2/(9*D29)</f>
-        <v>0.24023566926966824</v>
+        <f>2*D26^2/4*$G$2/(9*D29)/100</f>
+        <v>2.8157433537795832E-3</v>
       </c>
       <c r="E31">
-        <f>2*E26^2/4*$G$2/(9*E29)</f>
-        <v>0.25525039859902243</v>
+        <f>2*E26^2/4*$G$2/(9*E29)/100</f>
+        <v>2.9986624185602893E-3</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
       </c>
       <c r="H31">
         <f>H29*SQRT(4*($M$2/D26)^2 + ($M$3/D27)^2 + ($M$4/$B$1)^2)</f>
-        <v>5.3792069814831318E-2</v>
+        <v>5.0383854779824627E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1285,26 +1285,26 @@
       </c>
       <c r="B32">
         <f>B28*B31</f>
-        <v>0.50542128575796541</v>
+        <v>5.0542128575796538E-3</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32" si="18">C28*C31</f>
-        <v>1.101382892547403</v>
+        <f t="shared" ref="C32" si="15">C28*C31</f>
+        <v>1.1013828925474029E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32" si="19">D28*D31</f>
-        <v>2.826301991407862</v>
+        <f t="shared" ref="D32" si="16">D28*D31</f>
+        <v>3.3126392397406862E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32" si="20">E28*E31</f>
-        <v>3.1906299824877804</v>
+        <f t="shared" ref="E32" si="17">E28*E31</f>
+        <v>3.7483280232003618E-2</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32">
         <f>SQRT(H30*H30+H31*H31)</f>
-        <v>0.10478043202552136</v>
+        <v>0.29008986138488541</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1358,15 +1358,15 @@
         <v>15.625</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39" si="21">$B$1/C38*10</f>
+        <f t="shared" ref="C39" si="18">$B$1/C38*10</f>
         <v>18.018018018018019</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39" si="22">$B$1/D38*10</f>
+        <f t="shared" ref="D39" si="19">$B$1/D38*10</f>
         <v>21.50537634408602</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="23">$B$1/E38*10</f>
+        <f t="shared" ref="E39" si="20">$B$1/E38*10</f>
         <v>21.50537634408602</v>
       </c>
     </row>
@@ -1383,19 +1383,19 @@
         <v>1.2683623680000002</v>
       </c>
       <c r="D40">
-        <f>2*9.81*D37^2*($G$2-$D$36)/(9*4*D39)*10</f>
-        <v>1.1941454931600002</v>
+        <f>2*9.81*D37^2*($G$2-$D$36)/(9*4*D39)/(1+2.4*(D37/$J$1))*10</f>
+        <v>1.0156905754506356</v>
       </c>
       <c r="E40">
-        <f>2*9.81*E37^2*($G$2-$D$36)/(9*4*E39)*10</f>
-        <v>1.2438962672400002</v>
+        <f>2*9.81*E37^2*($G$2-$D$36)/(9*4*E39)/(1+2.4*(E37/$J$1))*10</f>
+        <v>1.0547565302015873</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
       </c>
       <c r="H40">
         <f>AVERAGE(B40:E40)</f>
-        <v>1.2742008810600001</v>
+        <v>1.182302217373056</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1403,27 +1403,27 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <f>B39*B37/2*$D$36/B40/1000</f>
-        <v>5.4696513985504824E-3</v>
+        <f>B39*B37/2*$D$36/B40/100</f>
+        <v>5.4696513985504819E-2</v>
       </c>
       <c r="C41">
-        <f>C39*C37/2*$D$3/C40/1000</f>
-        <v>7.1596897780879928E-3</v>
+        <f>C39*C37/2*$D$3/C40/100</f>
+        <v>7.1596897780879923E-2</v>
       </c>
       <c r="D41">
-        <f>D39*D37/2*$D$3/D40/1000</f>
-        <v>2.201061019640781E-2</v>
+        <f>D39*D37/2*$D$3/D40/100</f>
+        <v>0.25877832878463464</v>
       </c>
       <c r="E41">
-        <f>E39*E37/2*$D$3/E40/1000</f>
-        <v>2.1565951404561187E-2</v>
+        <f>E39*E37/2*$D$3/E40/100</f>
+        <v>0.25433174086616839</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
       </c>
       <c r="H41">
-        <f>SQRT(SUM((B40-H40)^2)/(4*3))</f>
-        <v>3.3543621893833787E-2</v>
+        <f>SQRT(SUM((B40-H40)^2,(C40-H40)^2,(D40-H40)^2,(E40-H40)^2)/(4*3))</f>
+        <v>8.8852934087720853E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1431,27 +1431,27 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <f>2*B37^2/4*$G$1/(9*B40)</f>
-        <v>0.18961458181641672</v>
+        <f>2*B37^2/4*$G$1/(9*B40)/100</f>
+        <v>1.8961458181641672E-3</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:E42" si="24">2*C37^2/4*$G$1/(9*C40)</f>
-        <v>0.21865465290541744</v>
+        <f>2*C37^2/4*$G$1/(9*C40)/100</f>
+        <v>2.1865465290541743E-3</v>
       </c>
       <c r="D42">
-        <f>2*D37^2/4*$G$2/(9*D40)</f>
-        <v>0.4377374660092479</v>
+        <f>2*D37^2/4*$G$2/(9*D40)/100</f>
+        <v>5.1464711286732558E-3</v>
       </c>
       <c r="E42">
-        <f>2*E37^2/4*$G$2/(9*E40)</f>
-        <v>0.43773746600924796</v>
+        <f>2*E37^2/4*$G$2/(9*E40)/100</f>
+        <v>5.1623287878192516E-3</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
       </c>
       <c r="H42">
         <f>H40*SQRT(4*($M$2/D37)^2 + ($M$3/D38)^2 + ($M$4/$B$1)^2)</f>
-        <v>3.0307375766714939E-2</v>
+        <v>2.812152942629946E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1460,26 +1460,26 @@
       </c>
       <c r="B43">
         <f>B39*B42</f>
-        <v>2.9627278408815112</v>
+        <v>2.9627278408815114E-2</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43" si="25">C39*C42</f>
-        <v>3.9397234757732873</v>
+        <f t="shared" ref="C43" si="21">C39*C42</f>
+        <v>3.9397234757732873E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="26">D39*D42</f>
-        <v>9.4137089464354382</v>
+        <f t="shared" ref="D43" si="22">D39*D42</f>
+        <v>0.11067679846609152</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43" si="27">E39*E42</f>
-        <v>9.41370894643544</v>
+        <f t="shared" ref="E43" si="23">E39*E42</f>
+        <v>0.11101782339396239</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
       <c r="H43">
         <f>SQRT(H41*H41+H42*H42)</f>
-        <v>4.5207428544668908E-2</v>
+        <v>9.3196911500709578E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1533,15 +1533,15 @@
         <v>31.746031746031747</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50" si="28">$B$1/C49*10</f>
+        <f t="shared" ref="C50" si="24">$B$1/C49*10</f>
         <v>35.087719298245609</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50" si="29">$B$1/D49*10</f>
+        <f t="shared" ref="D50" si="25">$B$1/D49*10</f>
         <v>35.087719298245609</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50" si="30">$B$1/E49*10</f>
+        <f t="shared" ref="E50" si="26">$B$1/E49*10</f>
         <v>36.36363636363636</v>
       </c>
     </row>
@@ -1578,27 +1578,27 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <f>B50*B48/2*$D$47/B51/1000</f>
-        <v>1.9493567242764274E-2</v>
+        <f>B50*B48/2*$D$47/B51/100</f>
+        <v>0.19493567242764276</v>
       </c>
       <c r="C52">
-        <f>C50*C48/2*$D$47/C51/1000</f>
-        <v>2.4354686598631131E-2</v>
+        <f>C50*C48/2*$D$47/C51/100</f>
+        <v>0.24354686598631128</v>
       </c>
       <c r="D52">
-        <f>D50*D48/2*$D$47/D51/1000</f>
-        <v>6.4969990317831711E-2</v>
+        <f>D50*D48/2*$D$47/D51/100</f>
+        <v>0.64969990317831716</v>
       </c>
       <c r="E52">
-        <f>E50*E48/2*$D$47/E51/1000</f>
-        <v>7.2185036313741124E-2</v>
+        <f>E50*E48/2*$D$47/E51/100</f>
+        <v>0.72185036313741124</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
       </c>
       <c r="H52">
-        <f>SQRT(SUM((B51-H51)^2)/(4*3))</f>
-        <v>4.6691589302875612E-2</v>
+        <f>SQRT(SUM((B51-H51)^2,(C51-H51)^2,(D51-H51)^2,(E51-H51)^2)/(4*3))</f>
+        <v>6.4723148314039941E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1606,20 +1606,20 @@
         <v>10</v>
       </c>
       <c r="B53">
-        <f>2*B48^2/4*$G$1/(9*B51)</f>
-        <v>0.38501362311472526</v>
+        <f>2*B48^2/4*$G$1/(9*B51)/100</f>
+        <v>3.8501362311472525E-3</v>
       </c>
       <c r="C53">
-        <f>2*C48^2/4*$G$1/(9*C51)</f>
-        <v>0.42554137291627514</v>
+        <f>2*C48^2/4*$G$1/(9*C51)/100</f>
+        <v>4.2554137291627514E-3</v>
       </c>
       <c r="D53">
-        <f>2*D48^2/4*$G$2/(9*D51)</f>
-        <v>0.84346088716477674</v>
+        <f>2*D48^2/4*$G$2/(9*D51)/100</f>
+        <v>8.4346088716477675E-3</v>
       </c>
       <c r="E53">
-        <f>2*E48^2/4*$G$2/(9*E51)</f>
-        <v>0.86878649904221317</v>
+        <f>2*E48^2/4*$G$2/(9*E51)/100</f>
+        <v>8.6878649904221315E-3</v>
       </c>
       <c r="G53" t="s">
         <v>37</v>
@@ -1635,26 +1635,26 @@
       </c>
       <c r="B54">
         <f>B50*B53</f>
-        <v>12.22265470205477</v>
+        <v>0.12222654702054771</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54" si="31">C50*C53</f>
-        <v>14.931276242676319</v>
+        <f t="shared" ref="C54" si="27">C50*C53</f>
+        <v>0.1493127624267632</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54" si="32">D50*D53</f>
-        <v>29.595118847886898</v>
+        <f t="shared" ref="D54" si="28">D50*D53</f>
+        <v>0.29595118847886898</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54" si="33">E50*E53</f>
-        <v>31.592236328807747</v>
+        <f>2*E49^2/4*$G$2/(9*E52)/100</f>
+        <v>5.8203044612019035E-2</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
       </c>
       <c r="H54">
         <f>SQRT(H52*H52+H53*H53)</f>
-        <v>5.0827798745511431E-2</v>
+        <v>6.7767592117228242E-2</v>
       </c>
     </row>
   </sheetData>

--- a/2 Семестр/2.2.6/2.2.6.xlsx
+++ b/2 Семестр/2.2.6/2.2.6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polub\Desktop\ЛАБЫ\2 Семестр\2.2.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A0A31C-2649-4D89-8D2C-D6E3E2DCA59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D8FC5F-D845-47A1-9029-0B0B19DD1AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -1642,12 +1642,12 @@
         <v>0.1493127624267632</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54" si="28">D50*D53</f>
+        <f t="shared" ref="D54:E54" si="28">D50*D53</f>
         <v>0.29595118847886898</v>
       </c>
       <c r="E54">
-        <f>2*E49^2/4*$G$2/(9*E52)/100</f>
-        <v>5.8203044612019035E-2</v>
+        <f t="shared" si="28"/>
+        <v>0.31592236328807749</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
